--- a/artfynd/A 43270-2018.xlsx
+++ b/artfynd/A 43270-2018.xlsx
@@ -811,14 +811,14 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3065713</v>
+        <v>3065717</v>
       </c>
       <c r="B3" t="n">
         <v>96334</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Humslid, 575 m NV om, Vrm</t>
+          <t>Fjölåsberget, S om, Vrm</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -866,7 +866,7 @@
         <v>6609288.932927667</v>
       </c>
       <c r="S3" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -886,6 +886,11 @@
       <c r="W3" t="inlineStr">
         <is>
           <t>Högerud</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>S-Arv-0575</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -935,15 +940,19 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
+          <t>Värmland Floraväktarna</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
           <t>Per Larsson</t>
         </is>
       </c>
-      <c r="AX3" t="inlineStr">
-        <is>
-          <t>Per Larsson</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
